--- a/django_thesis/Data_Gathering/Xiaomi Poco X3 Crowdsourcing Calibration Coefficients/cap2_2432_TechnoCamon_20.xlsx
+++ b/django_thesis/Data_Gathering/Xiaomi Poco X3 Crowdsourcing Calibration Coefficients/cap2_2432_TechnoCamon_20.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thesis2.0\django_thesis\Data_Gathering\Xiaomi Poco X3 Crowdsourcing Calibration Coefficients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7A0B3E3-0DE0-47CA-BA17-36911176C3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D160CD-A8F4-4B68-92B2-5C551E22BFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cap2_2432_TechnoCamon_20" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,6 +584,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Mean RSS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -597,11 +626,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -615,7 +644,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.7048556430446191E-2"/>
+          <c:y val="0.1708653631301128"/>
+          <c:w val="0.82812510936132988"/>
+          <c:h val="0.77846008862423499"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -634,8 +673,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
               <a:noFill/>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -644,24 +684,49 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -690,7 +755,7 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="dk1">
                           <a:lumMod val="65000"/>
                           <a:lumOff val="35000"/>
                         </a:schemeClr>
@@ -818,7 +883,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -834,9 +899,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
@@ -850,9 +915,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -880,7 +945,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -896,9 +961,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
@@ -912,9 +977,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -932,7 +997,21 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -952,13 +1031,12 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+          <a:alpha val="94000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -980,6 +1058,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1024,35 +1103,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1060,20 +1139,20 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1081,16 +1160,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1124,39 +1203,66 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1165,18 +1271,21 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -1204,16 +1313,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1228,7 +1336,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1237,9 +1345,9 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -1253,12 +1361,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -1272,12 +1380,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -1291,26 +1399,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1324,12 +1426,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -1343,14 +1445,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1362,12 +1464,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -1381,27 +1483,44 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1409,11 +1528,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1421,12 +1551,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -1440,12 +1570,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1454,14 +1584,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1470,7 +1599,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1482,21 +1611,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:upBar>
   <cs:valueAxis>
@@ -1504,15 +1624,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
@@ -1520,21 +1640,15 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1543,16 +1657,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133803</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>64407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438603</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1578,6 +1692,121 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.62222</cdr:x>
+      <cdr:y>0.12504</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97906</cdr:x>
+      <cdr:y>0.83048</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A48160-0C39-AA2D-3C71-28D6C8AD3426}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
+          <a:off x="2688166" y="501348"/>
+          <a:ext cx="1944753" cy="1631485"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-PH" sz="1400"/>
+            <a:t>RSS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1400" baseline="0"/>
+            <a:t> from Referance device 6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-PH" sz="1400"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1876,11 +2105,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:B13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
